--- a/pred_ohlcv/54_21/2019-10-16 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 XMR ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>1103.779273747723</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1026.747473747723</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1030.704473747723</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1014.704473747723</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-33089.21751110569</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-34002.55771110569</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-34002.25771110569</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-34001.84821110569</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-34001.84821110569</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-33887.07941110569</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-33875.07941110569</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-33736.79236951993</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-33737.60036951993</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-33615.17186951992</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-33525.04897129034</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-33503.72467129034</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-33528.51547129034</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-33521.01547129034</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-33590.01547129034</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-33761.23237129034</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-33761.23237129034</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-33761.23237129034</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-33984.64787129034</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-34182.17997129034</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-34082.17997129034</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-34076.93657129034</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-34325.11607129034</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-34425.11607129034</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-34422.31607129033</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-34266.77437129033</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-34282.55607129033</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-34294.53207129033</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-34293.58167129033</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-34290.20407129033</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-34283.01997129033</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-34265.71457129034</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-34165.71457129034</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-34530.75337129032</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34526.16147129032</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-34526.16147129032</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-34551.25897129033</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-34583.46897129033</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-34581.47047129033</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-34583.46547129033</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-34587.99377129033</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-34598.81977129033</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-34576.7428746829</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-34569.16017129033</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-34568.96017129033</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-34250.59916789777</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-34143.59916789777</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-34140.59916789777</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-34030.03766789777</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-34063.53766789777</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-34066.37276789777</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-34066.37276789777</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33965.92596789777</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33977.13796789777</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-34066.97396789777</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-34067.15766789777</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-34053.06336789778</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-34055.39966789778</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-34051.84196789778</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-34047.33086789778</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 XMR ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>1103.779273747723</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1052.747473747723</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1026.747473747723</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1042.747473747723</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-33503.72467129034</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-33527.70747129034</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-33528.51547129034</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-33521.01547129034</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-33590.01547129034</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-34423.31607129033</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-34422.31607129033</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-34415.31607129033</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-34416.77437129033</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-34266.77437129033</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-34282.55607129033</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-34294.53207129033</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-34293.58167129033</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-34290.20407129033</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-34283.01997129033</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-34265.71457129034</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-34165.71457129034</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-34152.48367129033</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-34191.22087129032</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-34185.22087129032</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-34196.07367129032</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-34197.84207129032</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-34546.16147129032</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-34546.16147129032</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-34551.25897129033</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-34575.96897129033</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-34581.47047129033</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-34583.46547129033</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-34587.99377129033</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-34598.81977129033</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-34583.17717129033</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-34576.7428746829</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-34569.16017129033</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-34568.96017129033</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-34528.96017129033</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-34140.59916789777</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-34140.59916789777</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-34117.59916789777</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-34017.59916789777</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-34017.59916789777</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-34009.89166789777</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-34036.04666789777</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-34030.03766789777</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-34063.53766789777</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-34066.37276789777</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-34066.37276789777</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-34065.92596789777</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-33965.92596789777</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-33977.13796789777</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-34066.97396789777</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-34067.15766789777</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-34053.06336789778</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-34055.39966789778</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-34051.84196789778</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-34047.33086789778</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
